--- a/2_2/activity_solved.xlsx
+++ b/2_2/activity_solved.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\won_m\OneDrive\Documentos\EDUCEM\2023-1\BACHILLERATO\activities\2_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56F6BE3C-A1F4-459F-BF05-F1D01C3F68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D797D8E-E269-4D8C-A9E6-F2E7BCC17B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C157B75A-14D9-468C-8966-3A5D037493EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -515,7 +524,7 @@
   <dimension ref="B3:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,15 +720,15 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5" t="str">
         <f>VLOOKUP(G16,B4:E12,2,0)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="I16" s="5">
         <f>VLOOKUP(G16,B4:E12,4,0)</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
